--- a/Data/Transitions/19281934Translation.xlsx
+++ b/Data/Transitions/19281934Translation.xlsx
@@ -31,7 +31,7 @@
     <t>{2.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.9837473879730672}</t>
+    <t>{3.0: 0.9830426356589147}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 1.0, 178.0: 0.00016231131309852296, 623.0: 0.0007625438462711606, 696.0: 0.0029159241859711645, 492.0: 1.825592149125948e-05}</t>
+    <t>{14.0: 1.0, 178.0: 0.00016329196603527107, 623.0: 0.0007645259938837921, 696.0: 0.002995008319467554, 492.0: 1.8643126920415906e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -73,7 +73,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.989010989010989}</t>
+    <t>{17.0: 0.9890756302521009}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -106,13 +106,13 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 90.0: 0.005317945236478841, 246.0: 0.0014045075103535124}</t>
+    <t>{46.0: 1.0, 90.0: 0.005340909090909091, 246.0: 0.0014045099541301804}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -151,7 +151,7 @@
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.9985699985699986}</t>
+    <t>{73.0: 0.9985652797704447}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
@@ -190,7 +190,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.9977833604255948}</t>
+    <t>{86.0: 0.9977641973468475}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -202,10 +202,10 @@
     <t>{89.0: 1.0}</t>
   </si>
   <si>
-    <t>{90.0: 0.9946820547635211}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9996668959460804}</t>
+    <t>{90.0: 0.9946590909090909}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9996710680889056}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.44695487535500156}</t>
+    <t>{98.0: 0.4517299630857786}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -250,16 +250,16 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 86.0: 0.0022166395744052016}</t>
+    <t>{107.0: 1.0, 86.0: 0.0022358026531524816}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.0231353591160221}</t>
-  </si>
-  <si>
-    <t>{110.0: 0.976864640883978}</t>
+    <t>{109.0: 1.0, 110.0: 0.02275042444821732}</t>
+  </si>
+  <si>
+    <t>{110.0: 0.9772495755517827}</t>
   </si>
   <si>
     <t>{139.0: 0.6493268053855569}</t>
@@ -298,7 +298,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 1.0, 975.0: 0.0008218266525426588}</t>
+    <t>{152.0: 1.0, 975.0: 0.0008217910235256162}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -328,7 +328,7 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.7237212009969225}</t>
+    <t>{171.0: 0.7267679586988522}</t>
   </si>
   <si>
     <t>{172.0: 1.0, 81.0: 0.004697040864255519}</t>
@@ -349,7 +349,7 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9998376886869015}</t>
+    <t>{178.0: 0.9998367080339647}</t>
   </si>
   <si>
     <t>{179.0: 1.0}</t>
@@ -367,7 +367,7 @@
     <t>{183.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.997979117547996, 171.0: 0.0036723380510758886, 593.0: 0.0009507381887469634, 778.0: 0.0005968011458582001}</t>
+    <t>{184.0: 0.9979626485568761, 171.0: 0.003644673256631927, 593.0: 0.000950454102370883, 778.0: 0.0005811250581125058}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -376,10 +376,10 @@
     <t>{202.0: 1.0}</t>
   </si>
   <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 1.0, 857.0: 0.00538036167986848}</t>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 1.0, 857.0: 0.005378753922008068}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -415,13 +415,13 @@
     <t>{215.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.2727846961866583}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.0070047205725597686}</t>
+    <t>{265.0: 0.20300968880857473}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.006847275974992557}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -433,7 +433,7 @@
     <t>{222.0: 1.0}</t>
   </si>
   <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -445,7 +445,7 @@
     <t>{227.0: 1.0}</t>
   </si>
   <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.0005244755244755245}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.9994755244755245}</t>
+    <t>{240.0: 1.0, 241.0: 0.0005183137525915688}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.9994816862474084}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -490,7 +493,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9961354256592442}</t>
+    <t>{246.0: 0.9961315884520018}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -547,10 +550,10 @@
     <t>{264.0: 0.9882673014793403}</t>
   </si>
   <si>
-    <t>{265.0: 0.5219532671708194}</t>
-  </si>
-  <si>
-    <t>{267.0: 0.9917627677100495}</t>
+    <t>{265.0: 0.5917282745489029}</t>
+  </si>
+  <si>
+    <t>{267.0: 0.9914588315681585}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
@@ -562,7 +565,7 @@
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -577,7 +580,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9602417730020147}</t>
+    <t>{277.0: 0.9600539811066127}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -604,13 +607,13 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{286.0: 1.0, 909.0: 0.04610555228565823}</t>
+    <t>{286.0: 1.0, 909.0: 0.047051756932625886}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
+    <t>{288.0: 0.9978511952726296}</t>
   </si>
   <si>
     <t>{289.0: 1.0}</t>
@@ -688,7 +691,7 @@
     <t>{314.0: 1.0}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
@@ -703,10 +706,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.5530451246449984}</t>
+    <t>{398.0: 1.0, 98.0: 0.5482700369142214}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -724,10 +724,10 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6840894291295854}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.30840026047319297}</t>
+    <t>{404.0: 0.6812806587245971}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.31114225648213034}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -739,7 +739,7 @@
     <t>{408.0: 1.0}</t>
   </si>
   <si>
-    <t>{409.0: 0.9929952794274403}</t>
+    <t>{409.0: 0.9931527240250074}</t>
   </si>
   <si>
     <t>{410.0: 1.0}</t>
@@ -763,13 +763,13 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.9961880559085133}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.865523866886647}</t>
+    <t>{418.0: 0.996164500319625}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8641091794830309}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -793,10 +793,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29745909272316085}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7025409072768392}</t>
+    <t>{431.0: 0.2216275151154723}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7783724848845277}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
@@ -832,7 +832,7 @@
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096}</t>
+    <t>{443.0: 0.9625164401578256}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
@@ -886,7 +886,7 @@
     <t>{491.0: 1.0, 492.0: 0.22436055090998525}</t>
   </si>
   <si>
-    <t>{492.0: 0.7693786822363734}</t>
+    <t>{492.0: 0.7694147161571426}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -1027,7 +1027,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9988348203366811, 728.0: 0.10246483965185281}</t>
+    <t>{580.0: 0.9988299856588957, 728.0: 0.10196631935079252}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1066,7 +1066,7 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9967745561456847}</t>
+    <t>{593.0: 0.9967788758222881}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1078,10 +1078,10 @@
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{598.0: 1.0, 599.0: 0.007421875}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.992578125}</t>
+    <t>{598.0: 1.0, 599.0: 0.007639726578206675}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9923602734217933}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{605.0: 1.0}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1138,10 +1138,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0009433937212400633, 789.0: 0.004051324983440062}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.010772210118615348}</t>
+    <t>{618.0: 1.0, 246.0: 0.0009489582591142481, 789.0: 0.004051002677320427}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.010616724323034713}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1153,7 +1153,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1249,7 +1249,7 @@
     <t>{695.0: 1.0}</t>
   </si>
   <si>
-    <t>{696.0: 0.9970840758140288, 492.0: 0.0062425109321501155}</t>
+    <t>{696.0: 0.9970049916805325, 492.0: 0.006206089805951784}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1264,7 +1264,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9964349376114082}</t>
+    <t>{702.0: 0.9964323938637174}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
@@ -1282,7 +1282,7 @@
     <t>{707.0: 1.0}</t>
   </si>
   <si>
-    <t>{728.0: 0.8975351603481472, 580.0: 0.0011651796633188876}</t>
+    <t>{728.0: 0.8980336806492075, 580.0: 0.0011700143411042772}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1300,7 +1300,7 @@
     <t>{733.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.00143000143000143, 888.0: 0.010693069306930694}</t>
+    <t>{734.0: 1.0, 73.0: 0.0014347202295552368, 888.0: 0.010686720759944587}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1309,16 +1309,16 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.16773074800977378, 246.0: 0.0002554275350402646}</t>
+    <t>{740.0: 1.0, 789.0: 0.1677175283732661, 246.0: 0.000255116027440638}</t>
   </si>
   <si>
     <t>{741.0: 1.0}</t>
@@ -1423,7 +1423,7 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9994031988541417, 171.0: 0.01830002189473766, 184.0: 0.0020208824520040417, 593.0: 0.00123755688186106}</t>
+    <t>{778.0: 0.9994188749418875, 171.0: 0.018088971578194488, 184.0: 0.0020373514431239388, 593.0: 0.001237224002436105}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
@@ -1456,7 +1456,7 @@
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.8282179270067861, 246.0: 0.0012612455741220093}</t>
+    <t>{789.0: 0.8282314689494136, 246.0: 0.0012598273073130893}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1471,10 +1471,10 @@
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9951622083096187, 836.0: 0.014775977121067683}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9852240228789323, 835.0: 0.004837791690381332}</t>
+    <t>{835.0: 0.9949748743718593, 836.0: 0.014039855072463768}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9859601449275363, 835.0: 0.005025125628140704}</t>
   </si>
   <si>
     <t>{837.0: 1.0}</t>
@@ -1516,7 +1516,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 1.0, 277.0: 0.03975822699798522}</t>
+    <t>{850.0: 1.0, 277.0: 0.039946018893387315}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1525,7 +1525,7 @@
     <t>{852.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646}</t>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9946196383201316}</t>
+    <t>{857.0: 0.994621246077992}</t>
   </si>
   <si>
     <t>{858.0: 1.0, 543.0: 0.018817581800308944}</t>
@@ -1564,10 +1564,10 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9892277898813846, 267.0: 0.008237232289950576}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.9893069306930693}</t>
+    <t>{887.0: 0.9893832756769653, 267.0: 0.008541168431841476}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.9893132792400554}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1606,7 +1606,7 @@
     <t>{907.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.9538944477143417}</t>
+    <t>{909.0: 0.9529482430673741}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -1621,7 +1621,7 @@
     <t>{914.0: 0.9747840298855942}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.25325887987017, 420.0: 0.13447613311335305}</t>
+    <t>{915.0: 1.0, 171.0: 0.2504542281463881, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
@@ -1642,7 +1642,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9988558352402745}</t>
+    <t>{922.0: 0.99881995954147}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 1.0, 3.0: 0.0162526120269329, 418.0: 0.0038119440914866584, 922.0: 0.0011441647597254005}</t>
-  </si>
-  <si>
-    <t>{929.0: 1.0, 930.0: 0.35772747618134154}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.6422725238186585}</t>
+    <t>{928.0: 1.0, 3.0: 0.01695736434108527, 418.0: 0.0038354996803750267, 922.0: 0.0011800404585300068}</t>
+  </si>
+  <si>
+    <t>{929.0: 1.0, 930.0: 0.364474412847324}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.6355255871526759}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1675,7 +1675,7 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543}</t>
   </si>
   <si>
     <t>{934.0: 1.0}</t>
@@ -1687,7 +1687,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -1711,7 +1711,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.002119815668202765}</t>
+    <t>{971.0: 1.0, 975.0: 0.002163077212451801}</t>
   </si>
   <si>
     <t>{139.0: 0.3506731946144431}</t>
@@ -1723,7 +1723,7 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
+    <t>{975.0: 0.9970151317640227}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -1753,13 +1753,13 @@
     <t>{991.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.995576199955762}</t>
+    <t>{992.0: 0.9955840141311548}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994832, 178.0: 0.0006459948320413437, 623.0: 0.001614987080103359, 696.0: 0.005721431161519683, 492.0: 9.252232685240913e-05}</t>
+    <t>{14.0: 0.9919302775984506, 178.0: 0.0006455777921239509, 623.0: 0.0016139444803098773, 696.0: 0.005717900736820557, 492.0: 9.229939229500004e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1792,10 +1792,10 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.998266497168612, 86.0: 0.0017335028313879579}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.9924710641645129, 110.0: 0.007528935835487131}</t>
+    <t>{107.0: 0.9982664971686118, 86.0: 0.0017335028313879579}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.9924710641645128, 110.0: 0.007528935835487133}</t>
   </si>
   <si>
     <t>{110.0: 1.0}</t>
@@ -1807,7 +1807,7 @@
     <t>{142.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9990500316656113, 975.0: 0.0009499683343888536}</t>
+    <t>{152.0: 0.999050031665611, 975.0: 0.0009499683343888537}</t>
   </si>
   <si>
     <t>{165.0: 0.9867533423279774, 914.0: 0.013246657672022568}</t>
@@ -1822,13 +1822,13 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.9835310975016114, 171.0: 0.011387480521058108, 593.0: 0.0033967858587322275, 778.0: 0.0016846361185983828}</t>
+    <t>{184.0: 0.9834880171812902, 171.0: 0.011407602914240294, 593.0: 0.003406010339252073, 778.0: 0.0016983695652173913}</t>
   </si>
   <si>
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744952, 857.0: 0.005385190725504862}</t>
+    <t>{204.0: 0.9946682464454976, 857.0: 0.00533175355450237}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -1837,16 +1837,16 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.9893097838717172, 409.0: 0.010690216128282594}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.0998463901689708}</t>
+    <t>{218.0: 0.9891098484848486, 409.0: 0.010890151515151516}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.09984639016897082}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{228.0: 0.9923809523809523, 738.0: 0.00761904761904762}</t>
+    <t>{228.0: 0.9923809523809524, 738.0: 0.00761904761904762}</t>
   </si>
   <si>
     <t>{240.0: 0.9978021978021978, 241.0: 0.002197802197802198}</t>
@@ -1873,7 +1873,7 @@
     <t>{277.0: 1.0}</t>
   </si>
   <si>
-    <t>{286.0: 0.9156799425905991, 909.0: 0.0843200574094008}</t>
+    <t>{286.0: 0.9161163662323755, 909.0: 0.0838836337676245}</t>
   </si>
   <si>
     <t>{288.0: 1.0}</t>
@@ -1882,19 +1882,19 @@
     <t>{306.0: 0.9617261904761905, 142.0: 0.03827380952380952}</t>
   </si>
   <si>
-    <t>{315.0: 0.9926840420667581, 217.0: 0.007315957933241884}</t>
+    <t>{315.0: 0.9926840420667583, 217.0: 0.007315957933241884}</t>
   </si>
   <si>
     <t>{398.0: 0.5643116392383036, 98.0: 0.4356883607616965}</t>
   </si>
   <si>
-    <t>{402.0: 0.9895904270843467, 476.0: 0.010409572915653274}</t>
+    <t>{402.0: 0.9895904270843466, 476.0: 0.010409572915653274}</t>
   </si>
   <si>
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.3656576480042861, 404.0: 0.6343423519957139}</t>
+    <t>{405.0: 0.35768535262206147, 404.0: 0.6423146473779385}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -1903,7 +1903,7 @@
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391353, 17.0: 0.014789533560864617}</t>
+    <t>{419.0: 0.9852607709750567, 17.0: 0.01473922902494331}</t>
   </si>
   <si>
     <t>{420.0: 1.0}</t>
@@ -1921,7 +1921,7 @@
     <t>{476.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555473, 563.0: 0.03900037864445286}</t>
+    <t>{483.0: 0.9609996213555472, 563.0: 0.03900037864445286}</t>
   </si>
   <si>
     <t>{491.0: 0.6155305025813929, 492.0: 0.3844694974186071}</t>
@@ -1930,7 +1930,7 @@
     <t>{492.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.8601619027150942, 321.0: 0.1398380972849058}</t>
+    <t>{497.0: 0.8695187165775401, 321.0: 0.1304812834224599}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -1939,10 +1939,10 @@
     <t>{563.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9621830712010218, 728.0: 0.03781692879897811}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.6131836291198841, 742.0: 0.3868163708801159}</t>
+    <t>{580.0: 0.9620526846091505, 728.0: 0.03794731539084964}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.6131836291198841, 742.0: 0.38681637088011583}</t>
   </si>
   <si>
     <t>{593.0: 1.0}</t>
@@ -1960,49 +1960,49 @@
     <t>{618.0: 0.9843454790823212, 246.0: 0.001902602115596461, 789.0: 0.013751918802082352}</t>
   </si>
   <si>
-    <t>{619.0: 0.986706497386109, 887.0: 0.013293502613890963}</t>
+    <t>{619.0: 0.9866666666666667, 887.0: 0.013333333333333334}</t>
   </si>
   <si>
     <t>{623.0: 1.0}</t>
   </si>
   <si>
-    <t>{696.0: 0.9840861597813855, 492.0: 0.01591384021861437}</t>
+    <t>{696.0: 0.9841142490372271, 492.0: 0.015885750962772786}</t>
   </si>
   <si>
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{728.0: 0.9966110531803962, 580.0: 0.003388946819603754}</t>
-  </si>
-  <si>
-    <t>{734.0: 0.9638009049773756, 73.0: 0.005656108597285068, 888.0: 0.030542986425339366}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851528, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{728.0: 0.9966286307053942, 580.0: 0.0033713692946058093}</t>
+  </si>
+  <si>
+    <t>{734.0: 0.9645232815964523, 73.0: 0.005543237250554324, 888.0: 0.02993348115299335}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192109, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2985884233755502, 246.0: 0.00028798111883190805}</t>
-  </si>
-  <si>
-    <t>{778.0: 0.9784971368470258, 171.0: 0.019290456956868693, 184.0: 0.0006907963904283363, 593.0: 0.001521609805677143}</t>
+    <t>{740.0: 0.701123595505618, 789.0: 0.2985884233755502, 246.0: 0.0002879811188319081}</t>
+  </si>
+  <si>
+    <t>{778.0: 0.9790504383468064, 171.0: 0.018794097923397875, 184.0: 0.0006730009233437213, 593.0: 0.0014824628064520752}</t>
   </si>
   <si>
     <t>{789.0: 0.9990364541512766, 246.0: 0.0009635458487233015}</t>
   </si>
   <si>
-    <t>{835.0: 0.9912131519274376, 836.0: 0.008786848072562359}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646834, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{843.0: 0.9833994947672321, 264.0: 0.016600505232767952}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076417, 277.0: 0.09749670619235837}</t>
+    <t>{835.0: 0.9908743008536944, 836.0: 0.009125699146305564}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597994, 835.0: 0.007748404740200547}</t>
+  </si>
+  <si>
+    <t>{843.0: 0.983399494767232, 264.0: 0.016600505232767952}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9025032938076416, 277.0: 0.09749670619235835}</t>
   </si>
   <si>
     <t>{853.0: 0.9988155121756118, 91.0: 0.0011844878243881427}</t>
@@ -2011,13 +2011,13 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947866}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.999269920734251, 253.0: 0.0007300792657488527}</t>
-  </si>
-  <si>
-    <t>{887.0: 0.9969504757257867, 267.0: 0.003049524274213223}</t>
+    <t>{858.0: 0.9872985781990522, 543.0: 0.01270142180094787}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9992699207342512, 253.0: 0.0007300792657488527}</t>
+  </si>
+  <si>
+    <t>{887.0: 0.9969948311095084, 267.0: 0.0030051688904916456}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2029,16 +2029,16 @@
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114123}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.22379367063927466}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 0.9650092081031308, 3.0: 0.025782688766114184, 418.0: 0.006629834254143646, 922.0: 0.002578268876611418}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.8347584658780441, 930.0: 0.1652415341219559}</t>
+    <t>{928.0: 0.9648148148148148, 3.0: 0.025925925925925925, 418.0: 0.006666666666666666, 922.0: 0.0025925925925925925}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.8356613057207902, 930.0: 0.1643386942792098}</t>
   </si>
   <si>
     <t>{930.0: 1.0}</t>
@@ -2047,10 +2047,10 @@
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 0.9937323722970857, 702.0: 0.006267627702914447}</t>
-  </si>
-  <si>
-    <t>{937.0: 0.9930522596635553, 171.0: 0.0033101741988785177, 593.0: 0.003637566137566138}</t>
+    <t>{933.0: 0.9937616968184654, 702.0: 0.006238303181534623}</t>
+  </si>
+  <si>
+    <t>{937.0: 0.9930546558837803, 171.0: 0.003310182186279268, 593.0: 0.0036351619299405153}</t>
   </si>
   <si>
     <t>{971.0: 0.9941116231438814, 975.0: 0.005888376856118792}</t>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4141,29 +4141,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>613</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>613</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4218,29 +4218,29 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>614</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>614</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4339,51 +4339,51 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>615</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>179</v>
+        <v>616</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4405,29 +4405,29 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>617</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>617</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4460,29 +4460,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>618</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>618</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4559,51 +4559,51 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>619</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>619</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>620</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>620</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4779,29 +4779,29 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>621</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>217</v>
+        <v>621</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4867,29 +4867,29 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>622</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>225</v>
+        <v>622</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
